--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\tomcat\webapps\sb-admin-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\tomcat\webapps\Salesforce_login\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD6F34-368B-4671-9C0B-A4026D960CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3A001-9444-44A2-B36A-39FB7CA363BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>squad</t>
   </si>
@@ -90,18 +90,6 @@
     <t>JDR</t>
   </si>
   <si>
-    <t>alex@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>alex2@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>alex3@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>juan1@bcp.com.pe</t>
-  </si>
-  <si>
     <t>delegado1</t>
   </si>
   <si>
@@ -127,6 +115,21 @@
   </si>
   <si>
     <t>juan2</t>
+  </si>
+  <si>
+    <t>alex@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>alex2@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>alex3@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>juan1@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>juan1@bcp.com.pe.int</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,13 +540,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -583,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -606,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -626,16 +629,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -644,11 +647,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A4195118-A6E7-4FBF-8795-1D2416CF80E4}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{EB1A3D45-256D-407E-97F3-509E450ABF09}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{19C8814D-587D-48FA-8D0D-1D8B6E3A7E1C}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{A0B85C40-DC9D-4AA7-8B8D-1D157ADD92BD}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{35C197B5-A087-4FAB-B772-FBAF9D01857A}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{EB1A3D45-256D-407E-97F3-509E450ABF09}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{19C8814D-587D-48FA-8D0D-1D8B6E3A7E1C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{A0B85C40-DC9D-4AA7-8B8D-1D157ADD92BD}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{35C197B5-A087-4FAB-B772-FBAF9D01857A}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{A4195118-A6E7-4FBF-8795-1D2416CF80E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\tomcat\webapps\Salesforce_login\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3A001-9444-44A2-B36A-39FB7CA363BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31794C7-85EB-432D-A552-8AE289FA11E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>squad</t>
   </si>
@@ -42,12 +42,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mayorista</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>pass123</t>
   </si>
   <si>
@@ -57,18 +51,6 @@
     <t>pass345</t>
   </si>
   <si>
-    <t>alex2</t>
-  </si>
-  <si>
-    <t>alex3</t>
-  </si>
-  <si>
-    <t>bdn</t>
-  </si>
-  <si>
-    <t>juan1</t>
-  </si>
-  <si>
     <t>puesto</t>
   </si>
   <si>
@@ -81,42 +63,6 @@
     <t>delegado</t>
   </si>
   <si>
-    <t>EDN</t>
-  </si>
-  <si>
-    <t>ADN</t>
-  </si>
-  <si>
-    <t>JDR</t>
-  </si>
-  <si>
-    <t>delegado1</t>
-  </si>
-  <si>
-    <t>delegado2</t>
-  </si>
-  <si>
-    <t>delegado3</t>
-  </si>
-  <si>
-    <t>delegado4</t>
-  </si>
-  <si>
-    <t>manager1</t>
-  </si>
-  <si>
-    <t>manager2</t>
-  </si>
-  <si>
-    <t>manager3</t>
-  </si>
-  <si>
-    <t>manager4</t>
-  </si>
-  <si>
-    <t>juan2</t>
-  </si>
-  <si>
     <t>alex@bcp.com.pe.uat</t>
   </si>
   <si>
@@ -130,6 +76,48 @@
   </si>
   <si>
     <t>juan1@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>Mayorista</t>
+  </si>
+  <si>
+    <t>Negocio</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Negocio</t>
+  </si>
+  <si>
+    <t>Analista de Negocio</t>
+  </si>
+  <si>
+    <t>Jefe de Riesgo</t>
+  </si>
+  <si>
+    <t>Funcionario de Negocio</t>
+  </si>
+  <si>
+    <t>Po - Banca Negocio</t>
+  </si>
+  <si>
+    <t>Alex Mejia</t>
+  </si>
+  <si>
+    <t>Susana Flores</t>
+  </si>
+  <si>
+    <t>Juan Ruiz</t>
+  </si>
+  <si>
+    <t>Pedro Montex</t>
+  </si>
+  <si>
+    <t>Jorge Olivares</t>
+  </si>
+  <si>
+    <t>Manager de prueba</t>
+  </si>
+  <si>
+    <t>Iveth Mattos</t>
   </si>
 </sst>
 </file>
@@ -501,26 +489,29 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -531,117 +522,96 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\tomcat\webapps\Salesforce_login\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos de Usuarios\T04207\Desktop\COE CRMO\TESTs\CONTROLACCESOS_SF\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31794C7-85EB-432D-A552-8AE289FA11E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265ABB23-ED15-43C4-B6A0-283198EB570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Po - Banca Negocio</t>
   </si>
   <si>
-    <t>Alex Mejia</t>
-  </si>
-  <si>
     <t>Susana Flores</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Iveth Mattos</t>
+  </si>
+  <si>
+    <t>IVETH</t>
   </si>
 </sst>
 </file>
@@ -489,15 +489,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -528,10 +528,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -548,7 +548,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -565,10 +565,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -585,7 +585,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -602,10 +602,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>

--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos de Usuarios\T04207\Desktop\COE CRMO\TESTs\CONTROLACCESOS_SF\Salesforce_Control_Access\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265ABB23-ED15-43C4-B6A0-283198EB570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362258D0-2245-4095-884F-22C037EFB05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>squad</t>
   </si>
@@ -42,15 +42,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>pass234</t>
-  </si>
-  <si>
-    <t>pass345</t>
-  </si>
-  <si>
     <t>puesto</t>
   </si>
   <si>
@@ -63,61 +54,61 @@
     <t>delegado</t>
   </si>
   <si>
-    <t>alex@bcp.com.pe.uat</t>
-  </si>
-  <si>
-    <t>alex2@bcp.com.pe.uat</t>
-  </si>
-  <si>
-    <t>alex3@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>juan1@bcp.com.pe.uat</t>
-  </si>
-  <si>
-    <t>juan1@bcp.com.pe.int</t>
-  </si>
-  <si>
     <t>Mayorista</t>
   </si>
   <si>
-    <t>Negocio</t>
-  </si>
-  <si>
-    <t>Ejecutivo de Negocio</t>
-  </si>
-  <si>
-    <t>Analista de Negocio</t>
-  </si>
-  <si>
-    <t>Jefe de Riesgo</t>
-  </si>
-  <si>
-    <t>Funcionario de Negocio</t>
-  </si>
-  <si>
-    <t>Po - Banca Negocio</t>
-  </si>
-  <si>
-    <t>Susana Flores</t>
-  </si>
-  <si>
-    <t>Juan Ruiz</t>
-  </si>
-  <si>
-    <t>Pedro Montex</t>
-  </si>
-  <si>
-    <t>Jorge Olivares</t>
-  </si>
-  <si>
-    <t>Manager de prueba</t>
-  </si>
-  <si>
-    <t>Iveth Mattos</t>
-  </si>
-  <si>
-    <t>IVETH</t>
+    <t>Analista de Negocios de BE</t>
+  </si>
+  <si>
+    <t>STEPHANIE PAVLICH EGUSQUIZA</t>
+  </si>
+  <si>
+    <t>Ariana Hanke Roos</t>
+  </si>
+  <si>
+    <t>spavlich@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>Mayorista2021*.*</t>
+  </si>
+  <si>
+    <t>STEPHANY DE JESUS ALFARO</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Riesgos</t>
+  </si>
+  <si>
+    <t>FERNANDO ALBERTO BUSTAMANTE SANCHEZ</t>
+  </si>
+  <si>
+    <t>salfaro@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>ALFONSO FERNANDO GAVILANO LLOSA</t>
+  </si>
+  <si>
+    <t>Jefatura de Riesgos</t>
+  </si>
+  <si>
+    <t>fbustamante@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>JAVIER PUIGGROS MADUEÑO</t>
+  </si>
+  <si>
+    <t>Gerencia de Área de Riesgos</t>
+  </si>
+  <si>
+    <t>jpuiggros@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>JOSE PABLO MIÑAN GALARZA</t>
+  </si>
+  <si>
+    <t>pminan@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>Gerencia de División de Riesgos</t>
   </si>
 </sst>
 </file>
@@ -489,29 +480,30 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -520,108 +512,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{EB1A3D45-256D-407E-97F3-509E450ABF09}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{19C8814D-587D-48FA-8D0D-1D8B6E3A7E1C}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{A0B85C40-DC9D-4AA7-8B8D-1D157ADD92BD}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{35C197B5-A087-4FAB-B772-FBAF9D01857A}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{A4195118-A6E7-4FBF-8795-1D2416CF80E4}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D677B4EE-2E73-430C-9E33-5B3A371DB2FA}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{B41F9F6B-51C9-4F4A-BBDB-B2A683AA5123}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B8AB5A8F-2746-4C74-A5E6-0E24BC2350C3}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{D60E1735-D11A-4644-967A-ACB37A67A084}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{A5FAD222-AAB9-4F28-9E87-24E5E4EDFF23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362258D0-2245-4095-884F-22C037EFB05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E76865-3352-46DA-ACD3-D4A7AE6A9C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>spavlich@bcp.com.pe.int</t>
   </si>
   <si>
-    <t>Mayorista2021*.*</t>
-  </si>
-  <si>
     <t>STEPHANY DE JESUS ALFARO</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Gerencia de División de Riesgos</t>
+  </si>
+  <si>
+    <t>testPassword</t>
   </si>
 </sst>
 </file>
@@ -178,6 +178,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F8C94C36-1158-4DDC-9445-2B947FA5C04F}" name="squad"/>
+    <tableColumn id="2" xr3:uid="{35C827CA-603D-4C59-BDCA-8BC142FCA234}" name="puesto"/>
+    <tableColumn id="3" xr3:uid="{AD218B7A-7DA5-4CF5-A233-3438F8E8B85D}" name="nombreUsuario"/>
+    <tableColumn id="4" xr3:uid="{EF1FC143-09EF-4056-A66A-4CAAFF014015}" name="manager"/>
+    <tableColumn id="5" xr3:uid="{6D6F03DB-294F-4A49-916C-68FA0346DC9B}" name="delegado"/>
+    <tableColumn id="6" xr3:uid="{D69959B1-AC04-4DF3-ADA8-0507EA065587}" name="user" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" xr3:uid="{E9470D9E-537C-46F2-AA80-250C5A6B96CD}" name="password"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,13 +496,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -529,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,19 +558,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -557,19 +578,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,16 +598,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,16 +615,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -617,5 +638,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E76865-3352-46DA-ACD3-D4A7AE6A9C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6336AD5-B347-4C0C-8A96-5411D52814B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>squad</t>
   </si>
@@ -108,7 +108,16 @@
     <t>Gerencia de División de Riesgos</t>
   </si>
   <si>
-    <t>testPassword</t>
+    <t>MIGUEL GONZALO ROMAN IBARRA NOBLECILLA</t>
+  </si>
+  <si>
+    <t>miguelibarran@bcp.com.pe.int</t>
+  </si>
+  <si>
+    <t>Mayorista2021*.*</t>
+  </si>
+  <si>
+    <t>Analista de Activos y Pasivos</t>
   </si>
 </sst>
 </file>
@@ -181,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F8C94C36-1158-4DDC-9445-2B947FA5C04F}" name="squad"/>
     <tableColumn id="2" xr3:uid="{35C827CA-603D-4C59-BDCA-8BC142FCA234}" name="puesto"/>
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190EBC33-77D5-41C3-BBD2-257D55FB825E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +516,7 @@
     <col min="4" max="4" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -570,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -590,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,7 +616,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,7 +633,24 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -635,11 +661,12 @@
     <hyperlink ref="F4" r:id="rId3" xr:uid="{B8AB5A8F-2746-4C74-A5E6-0E24BC2350C3}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{D60E1735-D11A-4644-967A-ACB37A67A084}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{A5FAD222-AAB9-4F28-9E87-24E5E4EDFF23}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{6E2ED7B3-D68D-4A8D-81B5-53DC02509A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6336AD5-B347-4C0C-8A96-5411D52814B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5187A7-2D89-4EAE-8534-8594B542C950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>squad</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Analista de Activos y Pasivos</t>
+  </si>
+  <si>
+    <t>salfaro@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ejecutivo de Riesgos</t>
+  </si>
+  <si>
+    <t>fbustamante@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>MARISOL MONTEZA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Negocios de BE</t>
+  </si>
+  <si>
+    <t>mmonteza@bcp.com.pe.uat</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F8C94C36-1158-4DDC-9445-2B947FA5C04F}" name="squad"/>
     <tableColumn id="2" xr3:uid="{35C827CA-603D-4C59-BDCA-8BC142FCA234}" name="puesto"/>
@@ -502,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190EBC33-77D5-41C3-BBD2-257D55FB825E}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +671,57 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -662,11 +731,14 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{D60E1735-D11A-4644-967A-ACB37A67A084}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{A5FAD222-AAB9-4F28-9E87-24E5E4EDFF23}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{6E2ED7B3-D68D-4A8D-81B5-53DC02509A9D}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{4B62B0AF-A842-49F0-82EF-F3FE4C98BF8C}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{2CA84A1C-652F-4D1D-B730-84BCD5D77C4B}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{F1A5EB17-A7A5-417E-926B-CAA94CEA1034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5187A7-2D89-4EAE-8534-8594B542C950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73869A5D-D706-424F-86D9-1A2515E37F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>squad</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>mmonteza@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>QA0021 QA0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Perfil Básico de Mayorista - PO</t>
+  </si>
+  <si>
+    <t>qa0021@bcp.com.pe.uat</t>
   </si>
 </sst>
 </file>
@@ -208,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F8C94C36-1158-4DDC-9445-2B947FA5C04F}" name="squad"/>
     <tableColumn id="2" xr3:uid="{35C827CA-603D-4C59-BDCA-8BC142FCA234}" name="puesto"/>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190EBC33-77D5-41C3-BBD2-257D55FB825E}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,6 +731,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -734,11 +760,12 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{4B62B0AF-A842-49F0-82EF-F3FE4C98BF8C}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{2CA84A1C-652F-4D1D-B730-84BCD5D77C4B}"/>
     <hyperlink ref="F10" r:id="rId9" xr:uid="{F1A5EB17-A7A5-417E-926B-CAA94CEA1034}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{1BA1784E-1C59-4E5C-9AF3-41AE5DFF0ACE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73869A5D-D706-424F-86D9-1A2515E37F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62206375-A77A-4A3E-8233-F229D13C5D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>squad</t>
   </si>
@@ -63,12 +63,6 @@
     <t>STEPHANIE PAVLICH EGUSQUIZA</t>
   </si>
   <si>
-    <t>Ariana Hanke Roos</t>
-  </si>
-  <si>
-    <t>spavlich@bcp.com.pe.int</t>
-  </si>
-  <si>
     <t>STEPHANY DE JESUS ALFARO</t>
   </si>
   <si>
@@ -78,54 +72,12 @@
     <t>FERNANDO ALBERTO BUSTAMANTE SANCHEZ</t>
   </si>
   <si>
-    <t>salfaro@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>ALFONSO FERNANDO GAVILANO LLOSA</t>
-  </si>
-  <si>
     <t>Jefatura de Riesgos</t>
   </si>
   <si>
-    <t>fbustamante@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>JAVIER PUIGGROS MADUEÑO</t>
-  </si>
-  <si>
-    <t>Gerencia de Área de Riesgos</t>
-  </si>
-  <si>
-    <t>jpuiggros@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>JOSE PABLO MIÑAN GALARZA</t>
-  </si>
-  <si>
-    <t>pminan@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>Gerencia de División de Riesgos</t>
-  </si>
-  <si>
-    <t>MIGUEL GONZALO ROMAN IBARRA NOBLECILLA</t>
-  </si>
-  <si>
-    <t>miguelibarran@bcp.com.pe.int</t>
-  </si>
-  <si>
-    <t>Mayorista2021*.*</t>
-  </si>
-  <si>
-    <t>Analista de Activos y Pasivos</t>
-  </si>
-  <si>
     <t>salfaro@bcp.com.pe.uat</t>
   </si>
   <si>
-    <t xml:space="preserve">	Ejecutivo de Riesgos</t>
-  </si>
-  <si>
     <t>fbustamante@bcp.com.pe.uat</t>
   </si>
   <si>
@@ -138,13 +90,82 @@
     <t>mmonteza@bcp.com.pe.uat</t>
   </si>
   <si>
-    <t>QA0021 QA0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Perfil Básico de Mayorista - PO</t>
-  </si>
-  <si>
-    <t>qa0021@bcp.com.pe.uat</t>
+    <t>M@yorista2022</t>
+  </si>
+  <si>
+    <t>rhualpatueroc@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>RENZO MOISES Hualpatuero Carlos</t>
+  </si>
+  <si>
+    <t>Ejecutivo de Negocios de BC</t>
+  </si>
+  <si>
+    <t>mariaparedesp@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>MARIA LEONOR PAREDES PORLES</t>
+  </si>
+  <si>
+    <t>juanzamoras@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>nataliajurado@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>spavlich@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>JUAN EDUARDO ZAMORA SALDARRIAGA</t>
+  </si>
+  <si>
+    <t>Sub Gerente de Planeamiento de Créditos</t>
+  </si>
+  <si>
+    <t>NATALIA JURADO CELIS</t>
+  </si>
+  <si>
+    <t>Gerente de Activos y Pasivos</t>
+  </si>
+  <si>
+    <t>BERTHA MARIEL TORRES CASTILLO</t>
+  </si>
+  <si>
+    <t>Gerente de Negocio BE</t>
+  </si>
+  <si>
+    <t>berthatorres@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>WILLIAM ANDRES GÁLVEZ PANCORBO</t>
+  </si>
+  <si>
+    <t>Analista Volante</t>
+  </si>
+  <si>
+    <t>williamgalvezp@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>Gerente de Negocio BC</t>
+  </si>
+  <si>
+    <t>Analista de Negocios de BC</t>
+  </si>
+  <si>
+    <t>MARIA JOSE ALVA CANALES</t>
+  </si>
+  <si>
+    <t>Perfil Básico de Mayorista - PO</t>
+  </si>
+  <si>
+    <t>malvac@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>GONZALO MONTERO RODRIGUEZ-LARRAIN</t>
+  </si>
+  <si>
+    <t>gmontero@bcp.com.pe.uat</t>
   </si>
 </sst>
 </file>
@@ -195,9 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -217,8 +239,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DEBCB23-C631-49EC-9ED4-1C37E35A8998}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{CA69B20A-7E80-491E-8F25-9C9A41A2A9D1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="B1:B13"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F8C94C36-1158-4DDC-9445-2B947FA5C04F}" name="squad"/>
     <tableColumn id="2" xr3:uid="{35C827CA-603D-4C59-BDCA-8BC142FCA234}" name="puesto"/>
@@ -529,18 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190EBC33-77D5-41C3-BBD2-257D55FB825E}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
@@ -574,19 +598,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,19 +615,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -614,19 +632,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
         <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,16 +649,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -651,16 +666,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -668,16 +683,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -685,16 +700,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -727,8 +742,8 @@
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -736,36 +751,73 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{D677B4EE-2E73-430C-9E33-5B3A371DB2FA}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{B41F9F6B-51C9-4F4A-BBDB-B2A683AA5123}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{B8AB5A8F-2746-4C74-A5E6-0E24BC2350C3}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{D60E1735-D11A-4644-967A-ACB37A67A084}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{A5FAD222-AAB9-4F28-9E87-24E5E4EDFF23}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6E2ED7B3-D68D-4A8D-81B5-53DC02509A9D}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{4B62B0AF-A842-49F0-82EF-F3FE4C98BF8C}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{2CA84A1C-652F-4D1D-B730-84BCD5D77C4B}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{F1A5EB17-A7A5-417E-926B-CAA94CEA1034}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{1BA1784E-1C59-4E5C-9AF3-41AE5DFF0ACE}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4B62B0AF-A842-49F0-82EF-F3FE4C98BF8C}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{2CA84A1C-652F-4D1D-B730-84BCD5D77C4B}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{F1A5EB17-A7A5-417E-926B-CAA94CEA1034}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{1BA1784E-1C59-4E5C-9AF3-41AE5DFF0ACE}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{E4315766-8526-45A0-9DBF-29AB8B1B2DFB}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{9C89EAB4-486D-4981-9512-17D698C2A166}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{E01A84AB-4F96-42C6-8FAF-6ECB260EC417}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{52236455-99B2-453D-9D02-4C3C68C5399F}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{52A11F48-B2B1-4012-9BDD-7E5CEC38D26D}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{AB071A5A-0DBE-4C58-A7F7-8655C711E99E}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{A733084D-6020-4CB9-8A39-4B1955F76E19}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{6E56E470-C577-4714-8D39-C9BB1A8EF200}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{067EA79A-848F-440B-844B-FF500C5BB2E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/data/data_tests.xlsx
+++ b/static/data/data_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto BCP\SF_Access_Control\Salesforce_Control_Access\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62206375-A77A-4A3E-8233-F229D13C5D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC2C87-0947-4B00-8E49-36B6ABDD1195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3109759D-9FE3-40E7-9A20-0CE398D0EEE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>squad</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>gmontero@bcp.com.pe.uat</t>
+  </si>
+  <si>
+    <t>Mayorista2022</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -641,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -804,7 +807,7 @@
     <hyperlink ref="F12" r:id="rId2" xr:uid="{2CA84A1C-652F-4D1D-B730-84BCD5D77C4B}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{F1A5EB17-A7A5-417E-926B-CAA94CEA1034}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{1BA1784E-1C59-4E5C-9AF3-41AE5DFF0ACE}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{E4315766-8526-45A0-9DBF-29AB8B1B2DFB}"/>
+    <hyperlink ref="G2" r:id="rId5" display="M@yorista2022" xr:uid="{E4315766-8526-45A0-9DBF-29AB8B1B2DFB}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{9C89EAB4-486D-4981-9512-17D698C2A166}"/>
     <hyperlink ref="F13" r:id="rId7" xr:uid="{E01A84AB-4F96-42C6-8FAF-6ECB260EC417}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{52236455-99B2-453D-9D02-4C3C68C5399F}"/>
